--- a/牛客笔试题/servlet.xlsx
+++ b/牛客笔试题/servlet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView windowWidth="18840" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +36,66 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -47,15 +107,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,115 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,13 +191,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,163 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +376,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -401,21 +403,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -427,26 +414,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +437,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -483,153 +461,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,7 +722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64770" y="31750"/>
-          <a:ext cx="6706235" cy="3721100"/>
+          <a:ext cx="7310755" cy="3587750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,8 +763,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7092950" y="355600"/>
-          <a:ext cx="4362450" cy="3200400"/>
+          <a:off x="7740650" y="342900"/>
+          <a:ext cx="4751070" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="237490" y="4333875"/>
+          <a:ext cx="5400675" cy="3705225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,13 +1111,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.36363636363636" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="3.36666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="3.36363636363636" customWidth="1"/>
+    <col min="1" max="16384" width="3.36666666666667" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1101,7 +1136,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1118,7 +1153,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/牛客笔试题/servlet.xlsx
+++ b/牛客笔试题/servlet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="10275"/>
+    <workbookView windowWidth="19080" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -39,8 +39,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,52 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -115,7 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -123,54 +168,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,11 +379,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,6 +409,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -414,21 +435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,23 +462,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -807,6 +807,132 @@
         <a:xfrm>
           <a:off x="237490" y="4333875"/>
           <a:ext cx="5400675" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18415</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="274955" y="9458325"/>
+          <a:ext cx="7715250" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" r:link="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="370205" y="13877925"/>
+          <a:ext cx="9734550" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8807450" y="10858500"/>
+          <a:ext cx="8401050" cy="2133600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1111,8 +1237,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AD33" sqref="AD33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="AL71" sqref="AL71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.36666666666667" defaultRowHeight="13.5"/>
